--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_04/1.4.5.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_04/1.4.5.xlsx
@@ -5,18 +5,24 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D4A1ED-5D53-44A1-BC1A-7FD8E9D60537}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BD6A73-516C-4456-9BDF-1B82DD04E676}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -175,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -248,17 +254,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF8DB4E2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -404,7 +399,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -454,6 +449,9 @@
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -468,12 +466,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -966,7 +958,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -976,7 +968,7 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="2.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.625" customWidth="1"/>
     <col min="13" max="13" width="12.875" customWidth="1"/>
@@ -985,28 +977,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1024,14 +1016,14 @@
         <v>5</v>
       </c>
       <c r="L2" s="7"/>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1068,15 +1060,15 @@
       <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="19">
         <v>-1000</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="15"/>
-      <c r="G4" s="26">
+      <c r="G4" s="19">
         <v>-1000</v>
       </c>
       <c r="H4" s="3"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_04/1.4.5.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_04/1.4.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BD6A73-516C-4456-9BDF-1B82DD04E676}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA24D27-AE6C-4941-8C3A-C5DD20198EAB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -968,7 +968,7 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="2.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.625" customWidth="1"/>
     <col min="13" max="13" width="12.875" customWidth="1"/>
